--- a/MGD Assignment Checklist.xlsx
+++ b/MGD Assignment Checklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>Turret Rotation</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Camera Zoom</t>
   </si>
   <si>
-    <t>Button that lets player zoom in/out</t>
-  </si>
-  <si>
     <t>Profile Scan</t>
   </si>
   <si>
@@ -241,20 +238,98 @@
     <t>Scan Button</t>
   </si>
   <si>
-    <t>Zoom Button</t>
-  </si>
-  <si>
     <t>Lock On Button</t>
   </si>
   <si>
     <t>Reticle UI</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Based on who/what is scanned:</t>
+  </si>
+  <si>
+    <t>&gt; Bandits/Raiders</t>
+  </si>
+  <si>
+    <t>&gt; Civilians/Warden/Police</t>
+  </si>
+  <si>
+    <t>Randomizes persons identity into the category</t>
+  </si>
+  <si>
+    <t>&gt; Identitiy = name, criminal record, clothes they spawn in</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>SFX + BGM + etc</t>
+  </si>
+  <si>
+    <t>&gt; Menu UI button clicks</t>
+  </si>
+  <si>
+    <t>&gt; In game UI button clicks</t>
+  </si>
+  <si>
+    <t>&gt; Weapon fire sound</t>
+  </si>
+  <si>
+    <t>&gt; Explosion from weapon sound</t>
+  </si>
+  <si>
+    <t>&gt; People screaming sound</t>
+  </si>
+  <si>
+    <t>&gt; Zooming sound</t>
+  </si>
+  <si>
+    <t>&gt; Scanning sound</t>
+  </si>
+  <si>
+    <t>Pinch to zoom in/out</t>
+  </si>
+  <si>
+    <t>Helpful links</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C6GqSTS3ghM</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>POSTPONED</t>
+  </si>
+  <si>
+    <t>DELAY</t>
+  </si>
+  <si>
+    <t>Civilian</t>
+  </si>
+  <si>
+    <t>To complete by</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Final Build</t>
+  </si>
+  <si>
+    <t>VERY HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +354,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +373,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,10 +556,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -478,19 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -536,20 +620,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E56"/>
+  <dimension ref="B1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,508 +980,821 @@
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="26"/>
+    <col min="6" max="6" width="32.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="G11" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="D48" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="10" t="s">
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
+      <c r="E54" s="29"/>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="10" t="s">
+      <c r="D60" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="31"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="C75" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="9"/>
+      <c r="D75" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1359,85 +1812,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>50</v>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>54</v>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/MGD Assignment Checklist.xlsx
+++ b/MGD Assignment Checklist.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Feature List" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>Turret Rotation</t>
   </si>
@@ -169,48 +168,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>TOP PRIORITY</t>
-  </si>
-  <si>
-    <t>Shoot button</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Civilians with nav-mesh</t>
-  </si>
-  <si>
-    <t>MEDIUM PRIORITY</t>
-  </si>
-  <si>
-    <t>Lock On</t>
-  </si>
-  <si>
-    <t>Scan Civilian Profile</t>
-  </si>
-  <si>
-    <t>Aim Zoom</t>
-  </si>
-  <si>
-    <t>Roads + City buildings</t>
-  </si>
-  <si>
-    <t>Turret + Tower + Wall art assets</t>
-  </si>
-  <si>
-    <t>Randomized Civilian Profiles</t>
-  </si>
-  <si>
-    <t>Switch between Cameras</t>
-  </si>
-  <si>
-    <t>Switch between different Towers</t>
-  </si>
-  <si>
-    <t>LOW PRIORITY</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -323,13 +280,16 @@
   </si>
   <si>
     <t>VERY HIGH</t>
+  </si>
+  <si>
+    <t>Random movement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,15 +299,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -558,7 +509,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -601,7 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -626,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -686,6 +636,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G76"/>
+  <dimension ref="B1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +933,7 @@
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="26"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
     <col min="6" max="6" width="32.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -1004,61 +957,61 @@
         <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>63</v>
+      <c r="E3" s="26" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
+      <c r="D4" s="19"/>
+      <c r="E4" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>63</v>
+      <c r="E6" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1070,7 +1023,7 @@
       <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -1078,44 +1031,48 @@
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="G11" s="23" t="s">
-        <v>91</v>
+      <c r="D11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="31"/>
+      <c r="D12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -1127,9 +1084,9 @@
       <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -1140,365 +1097,375 @@
       <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
+      <c r="E16" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>95</v>
+      <c r="C19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>63</v>
+      <c r="E25" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>95</v>
+      <c r="D26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="30"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>95</v>
+      <c r="D28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>95</v>
+      <c r="D29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>95</v>
+      <c r="D30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>95</v>
+      <c r="D31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="9"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="19"/>
+      <c r="E42" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="C46" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="9"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="30"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="29"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="28" t="s">
-        <v>63</v>
+      <c r="D49" s="19"/>
+      <c r="E49" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -1507,394 +1474,298 @@
         <v>31</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>95</v>
+      <c r="D51" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="28" t="s">
-        <v>63</v>
+      <c r="C52" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="30"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="34" t="s">
+      <c r="D55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="30"/>
+      <c r="D56" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="28" t="s">
-        <v>63</v>
-      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="28" t="s">
-        <v>63</v>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
-      <c r="C59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="28" t="s">
-        <v>63</v>
+      <c r="C59" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
-      <c r="C60" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>63</v>
+      <c r="C60" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
-      <c r="C61" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="20" t="s">
+      <c r="C61" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>63</v>
+      <c r="E61" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
-      <c r="C62" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="C62" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="1" t="s">
-        <v>98</v>
+      <c r="E62" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="31"/>
+      <c r="C63" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="30"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="30"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>95</v>
-      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="30"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
+      <c r="B67" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C67" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
-      <c r="C68" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>95</v>
+      <c r="C68" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
-      <c r="C69" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>95</v>
+      <c r="C69" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
-      <c r="C70" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>95</v>
+      <c r="C70" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
-      <c r="C71" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>95</v>
+      <c r="C71" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
-      <c r="C72" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>95</v>
+      <c r="C72" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
-      <c r="C73" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>95</v>
+      <c r="C73" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="30"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="29"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>